--- a/ch02-describing-data-tables-graphs/check-2.8.xlsx
+++ b/ch02-describing-data-tables-graphs/check-2.8.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\statistics-11-edition-exercises\ch02-describing-data-tables-graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D8C932-F1CF-493E-9978-048B622B37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0FFD6-5B4E-413A-B863-D672BB2B5054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Total</t>
   </si>
@@ -146,15 +142,6 @@
   </si>
   <si>
     <t>movie rating</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of movie rating</t>
   </si>
   <si>
     <t>f</t>
@@ -271,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,7 +274,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -318,156 +304,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="STC" refreshedDate="44846.673383680558" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{F6F10AC5-AB48-4539-83AE-AD4D7C7CCD12}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B9:B29" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="movie rating" numFmtId="0">
-      <sharedItems count="6">
-        <s v="PG"/>
-        <s v=" PG"/>
-        <s v=" PG-13"/>
-        <s v=" G"/>
-        <s v=" R"/>
-        <s v=" NC-17"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BB1DDD7-4796-4631-82A8-B6100BD0AF48}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0" countASubtotal="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="countA"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of movie rating" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,89 +568,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6700A065-4A57-4175-B469-8960A98F3100}">
-  <dimension ref="A3:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -907,7 +660,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>0.6</v>
       </c>
       <c r="J7" s="9"/>
@@ -932,16 +685,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -951,13 +704,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>E10/$E$16</f>
         <v>0.15</v>
       </c>
@@ -977,13 +730,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f t="shared" ref="F11:F15" si="0">E11/$E$16</f>
         <v>0.1</v>
       </c>
@@ -1003,21 +756,21 @@
         <v>8</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>7</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f>E12+G11</f>
         <v>12</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -1029,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -1055,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1081,17 +834,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1107,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>SUM(E10:E15)</f>
         <v>20</v>
       </c>
